--- a/weighted public results.xlsx
+++ b/weighted public results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\moharek\PycharmProjects\DIPLOMKA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EC5D8684-F4FA-4518-862D-735B3B8709D2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FDA5A678-B5E7-4DC8-A19D-0B9AF735022F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6800" yWindow="6800" windowWidth="2370" windowHeight="560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="List1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="157">
   <si>
     <t>DATASETS/MODELS</t>
   </si>
@@ -105,19 +105,19 @@
     <t>NRF_extraLayer_nesterov</t>
   </si>
   <si>
-    <t>0.8758784008561792+-0.006164153105852042</t>
+    <t>0.8804463364973639+-0.010872812819654453</t>
   </si>
   <si>
     <t>0.8865809965632813+-0.01601256759268087</t>
   </si>
   <si>
-    <t>0.8533468851539902+-0.017162809678670156</t>
-  </si>
-  <si>
-    <t>0.8532864099420893+-0.0130367226373009</t>
-  </si>
-  <si>
-    <t>0.853997918396382+-0.021928389325761945</t>
+    <t>0.8519305194292357+-0.013057729364018004</t>
+  </si>
+  <si>
+    <t>0.8523769495961272+-0.0071546619246746</t>
+  </si>
+  <si>
+    <t>0.8537541204902828+-0.010331921303476255</t>
   </si>
   <si>
     <t>0.8946330346928194+-0.013030444095916612</t>
@@ -132,43 +132,43 @@
     <t>0.8959736403368325+-0.009749834499035727</t>
   </si>
   <si>
-    <t>0.8915675922163457+-0.010421387402285305</t>
+    <t>0.885300545605439+-0.009547119904791838</t>
   </si>
   <si>
     <t>0.8918387054985278+-0.016073365668177592</t>
   </si>
   <si>
-    <t>0.8985035204315278+-0.010286551351138576</t>
-  </si>
-  <si>
-    <t>0.894611745058307+-0.012827456514003762</t>
-  </si>
-  <si>
-    <t>0.8916457485380405+-0.012570098338026083</t>
+    <t>0.8859329744661236+-0.00926334363954004</t>
+  </si>
+  <si>
+    <t>0.8887326619244021+-0.007528501861471449</t>
+  </si>
+  <si>
+    <t>0.8901118213442506+-0.014099418125315712</t>
   </si>
   <si>
     <t>0.8909111488902353+-0.0030460501982917504</t>
   </si>
   <si>
-    <t>0.8933954075187094+-0.007868379735795062</t>
+    <t>0.8890541946411311+-0.010240844741351566</t>
   </si>
   <si>
     <t>0.8931643616428503+-0.003900966346132181</t>
   </si>
   <si>
-    <t>0.9988381105729576+-0.001590982720991659</t>
-  </si>
-  <si>
-    <t>0.9247458757604563+-0.00986761797403263</t>
-  </si>
-  <si>
-    <t>0.8614158222648686+-0.021710709005961972</t>
-  </si>
-  <si>
-    <t>0.8788281756948239+-0.016412141987216338</t>
-  </si>
-  <si>
-    <t>0.8816976162402306+-0.029804095607125963</t>
+    <t>0.9994214578858456+-0.0012936594950956842</t>
+  </si>
+  <si>
+    <t>0.9275652967285068+-0.015740607596477996</t>
+  </si>
+  <si>
+    <t>0.8774096286642601+-0.021323500989796004</t>
+  </si>
+  <si>
+    <t>0.8828893676156073+-0.007644902916355807</t>
+  </si>
+  <si>
+    <t>0.8703923105051542+-0.03033356758562992</t>
   </si>
   <si>
     <t>0.9396873188024838+-0.013803148856736377</t>
@@ -180,7 +180,10 @@
     <t>0.9994183379690625+-0.0013006358411066417</t>
   </si>
   <si>
-    <t>0.9730858095884625+-0.01119634953944525</t>
+    <t>0.9689719163451197+-0.011261305974359781</t>
+  </si>
+  <si>
+    <t>0.9994213734813119+-0.0012938482293707858</t>
   </si>
   <si>
     <t>0.9919335363564835+-0.004711229010669701</t>
@@ -189,22 +192,25 @@
     <t>0.9977095681668237+-0.002367675743723588</t>
   </si>
   <si>
-    <t>0.9977007391730319+-0.005141303507102947</t>
+    <t>0.9994237538536787+-0.0012885255549469202</t>
+  </si>
+  <si>
+    <t>0.9971275705272619+-0.0064229475616163515</t>
   </si>
   <si>
     <t>0.7446755581409119+-0.030059384887177815</t>
   </si>
   <si>
-    <t>0.7584218412693108+-0.05280567805626324</t>
-  </si>
-  <si>
-    <t>0.7415347352968898+-0.01288337211366554</t>
-  </si>
-  <si>
-    <t>0.7457092323170292+-0.061480308798633185</t>
-  </si>
-  <si>
-    <t>0.7554465440020014+-0.023857052465360972</t>
+    <t>0.7624427164587202+-0.02030770513853549</t>
+  </si>
+  <si>
+    <t>0.7542913225519456+-0.03723049093010502</t>
+  </si>
+  <si>
+    <t>0.7575859814820384+-0.029606700285119133</t>
+  </si>
+  <si>
+    <t>0.7604660205139117+-0.03818634097531383</t>
   </si>
   <si>
     <t>0.7564571761131228+-0.02960682083694884</t>
@@ -228,7 +234,7 @@
     <t>0.6627570743744722+-0.10818301553802645</t>
   </si>
   <si>
-    <t>0.7533812114979895+-0.009318197461844336</t>
+    <t>0.7515296325346515+-0.018657247326699503</t>
   </si>
   <si>
     <t>0.7441504377466023+-0.04764552580484706</t>
@@ -243,19 +249,19 @@
     <t>0.6228752225209315+-0.11411540453990471</t>
   </si>
   <si>
-    <t>0.7065815844774624+-0.03080967894759953</t>
-  </si>
-  <si>
-    <t>0.7237096663560086+-0.02266690617282104</t>
-  </si>
-  <si>
-    <t>0.6445778679428166+-0.029021387899808855</t>
-  </si>
-  <si>
-    <t>0.665885410104042+-0.030724461704344574</t>
-  </si>
-  <si>
-    <t>0.6517871439606632+-0.028323054741549333</t>
+    <t>0.7128888844054094+-0.02829361299935422</t>
+  </si>
+  <si>
+    <t>0.7258950864241965+-0.01940150366959572</t>
+  </si>
+  <si>
+    <t>0.6547849796605657+-0.027799839676103156</t>
+  </si>
+  <si>
+    <t>0.6739818114561738+-0.02208026613217645</t>
+  </si>
+  <si>
+    <t>0.6750462490395869+-0.028687721177887097</t>
   </si>
   <si>
     <t>0.710765672428535+-0.04643764778358164</t>
@@ -282,7 +288,7 @@
     <t>0.7213915639316711+-0.05270607509888697</t>
   </si>
   <si>
-    <t>0.7125465826463016+-0.03914082650044843</t>
+    <t>0.7077687845463111+-0.04229769618911082</t>
   </si>
   <si>
     <t>0.7419578626933299+-0.025444878052820412</t>
@@ -294,22 +300,28 @@
     <t>0.6981717652909614+-0.04105853062624434</t>
   </si>
   <si>
-    <t>0.9503684961691378+-0.021852860879499246</t>
+    <t>0.950604251254028+-0.015056670076773497</t>
   </si>
   <si>
     <t>0.9324641936925633+-0.014561512684081023</t>
   </si>
   <si>
-    <t>0.920070236661206+-0.019276478352195918</t>
-  </si>
-  <si>
-    <t>0.964894175103222+-0.016048426543935894</t>
-  </si>
-  <si>
-    <t>0.9657747709266137+-0.015215502175176712</t>
-  </si>
-  <si>
-    <t>0.9568188735963931+-0.015192565078777262</t>
+    <t>0.893237604811491+-0.01875980570433363</t>
+  </si>
+  <si>
+    <t>0.9148129718162457+-0.019504972867157203</t>
+  </si>
+  <si>
+    <t>0.9206927029959476+-0.014790401280775344</t>
+  </si>
+  <si>
+    <t>0.9627204379897008+-0.015073844678509987</t>
+  </si>
+  <si>
+    <t>0.9627963706110849+-0.01460759779212815</t>
+  </si>
+  <si>
+    <t>0.9553107386909314+-0.015551557019532536</t>
   </si>
   <si>
     <t>0.9648339394632677+-0.015299737183967937</t>
@@ -327,13 +339,10 @@
     <t>0.9620287909538295+-0.013762743788682497</t>
   </si>
   <si>
-    <t>0.9653414791611958+-0.015672051860902158</t>
-  </si>
-  <si>
-    <t>0.9682322716006622+-0.013655727127406172</t>
-  </si>
-  <si>
-    <t>0.966008942013929+-0.014966068314384177</t>
+    <t>0.9607439105696532+-0.014810212279210708</t>
+  </si>
+  <si>
+    <t>0.9633323744902361+-0.016687348959706343</t>
   </si>
   <si>
     <t>0.9629039510012702+-0.014693918776556824</t>
@@ -345,13 +354,13 @@
     <t>0.7922486260577875+-0.03432571830434922</t>
   </si>
   <si>
-    <t>0.7109743623075141+-0.0727692109947023</t>
-  </si>
-  <si>
-    <t>0.7095060008345376+-0.056551969099303295</t>
-  </si>
-  <si>
-    <t>0.7037426106915164+-0.07401070280932964</t>
+    <t>0.7167998922946631+-0.05497897160350125</t>
+  </si>
+  <si>
+    <t>0.7095528470661422+-0.04674158831416974</t>
+  </si>
+  <si>
+    <t>0.7351184307355437+-0.028866207146980738</t>
   </si>
   <si>
     <t>0.7720224394033565+-0.03545393691659156</t>
@@ -390,19 +399,19 @@
     <t>0.7044928265206171+-0.03303824985061169</t>
   </si>
   <si>
-    <t>0.9724201980987327+-0.01905403843395432</t>
-  </si>
-  <si>
-    <t>0.9773267888064802+-0.02393038075924239</t>
-  </si>
-  <si>
-    <t>0.9775888701913061+-0.012533741861433162</t>
-  </si>
-  <si>
-    <t>0.9833039388594944+-0.024861713214397313</t>
-  </si>
-  <si>
-    <t>0.9887940138000034+-0.015350413610840469</t>
+    <t>0.9888888888888889+-0.024845199749997673</t>
+  </si>
+  <si>
+    <t>0.9776179344919311+-0.01253084798309173</t>
+  </si>
+  <si>
+    <t>0.9607778469615282+-0.04262345793372317</t>
+  </si>
+  <si>
+    <t>0.971837563854511+-0.02025027232097047</t>
+  </si>
+  <si>
+    <t>0.978241421406374+-0.03504121894703289</t>
   </si>
   <si>
     <t>0.988859356782062+-0.015261411780555005</t>
@@ -417,7 +426,7 @@
     <t>0.9833980033792628+-0.024753592567706807</t>
   </si>
   <si>
-    <t>0.9945236680530798+-0.01224545050066726</t>
+    <t>0.9774390130941855+-0.02402505018251803</t>
   </si>
   <si>
     <t>0.9775827783902318+-0.023300935219572244</t>
@@ -426,7 +435,7 @@
     <t>0.9887207225949619+-0.0252212310147425</t>
   </si>
   <si>
-    <t>0.9942595619483491+-0.012836009704117806</t>
+    <t>0.9833571233571233+-0.024831954140769445</t>
   </si>
   <si>
     <t>0.9943118666230795+-0.012719052895879797</t>
@@ -435,25 +444,25 @@
     <t>0.9887837168679274+-0.01536387259578322</t>
   </si>
   <si>
-    <t>0.97779608345527+-0.023076483108522408</t>
-  </si>
-  <si>
-    <t>0.9887049247049247+-0.02525655617076686</t>
-  </si>
-  <si>
-    <t>0.9888577161670365+-0.007047384733519234</t>
+    <t>0.9777555152508+-0.012439520550882028</t>
+  </si>
+  <si>
+    <t>0.9832087633120882+-0.015333934669095665</t>
+  </si>
+  <si>
+    <t>0.990693454275269+-0.009289257056369736</t>
   </si>
   <si>
     <t>0.9953514100321468+-0.006567674332901722</t>
   </si>
   <si>
-    <t>0.9962772348270909+-0.005097633125954498</t>
-  </si>
-  <si>
-    <t>0.9981314754949808+-0.004178147810847123</t>
-  </si>
-  <si>
-    <t>0.9009309203983917+-0.021386570801255132</t>
+    <t>0.8630580223731548+-0.029379834919143817</t>
+  </si>
+  <si>
+    <t>0.886288687324936+-0.02575070518267297</t>
+  </si>
+  <si>
+    <t>0.900176991443119+-0.03173813756131248</t>
   </si>
   <si>
     <t>0.995346415706326+-0.004656089133012168</t>
@@ -480,13 +489,13 @@
     <t>0.9794831777890646+-0.009689577092417814</t>
   </si>
   <si>
-    <t>0.994436084878809+-0.007602019956522652</t>
+    <t>0.9916391569343672+-0.006022189616901927</t>
   </si>
   <si>
     <t>0.9851028742226257+-0.009004546548671551</t>
   </si>
   <si>
-    <t>0.9778644573775447+-0.009939171549970755</t>
+    <t>0.9766523978023+-0.011976756103796856</t>
   </si>
 </sst>
 </file>
@@ -981,19 +990,19 @@
         <v>51</v>
       </c>
       <c r="K3" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="L3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="N3" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="O3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="P3" t="s">
         <v>49</v>
@@ -1010,55 +1019,55 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C4" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D4" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E4" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F4" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G4" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H4" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="I4" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="J4" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="K4" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="L4" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="M4" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="N4" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="O4" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="P4" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="Q4" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="R4" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.35">
@@ -1066,55 +1075,55 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C5" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D5" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E5" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F5" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G5" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="H5" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="I5" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="J5" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="K5" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L5" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="M5" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="N5" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="O5" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="P5" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="Q5" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="R5" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.35">
@@ -1122,55 +1131,55 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C6" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D6" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="E6" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="F6" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="G6" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="H6" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="I6" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="J6" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="K6" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="L6" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="M6" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="N6" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="O6" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="P6" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="Q6" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="R6" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.35">
@@ -1178,55 +1187,55 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="C7" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="D7" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="E7" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="F7" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="G7" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="H7" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="I7" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="J7" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="K7" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="L7" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="M7" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="N7" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="O7" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="P7" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="Q7" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="R7" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.35">
@@ -1234,55 +1243,55 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="C8" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="D8" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="E8" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="F8" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="G8" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="H8" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="I8" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="J8" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="K8" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="L8" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="M8" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="N8" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="O8" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="P8" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="Q8" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="R8" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.35">
@@ -1290,55 +1299,55 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="C9" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="D9" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="E9" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="F9" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="G9" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="H9" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="I9" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="J9" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="K9" t="s">
         <v>49</v>
       </c>
       <c r="L9" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="M9" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="N9" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="O9" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="P9" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="Q9" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="R9" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
     </row>
   </sheetData>
